--- a/Pawnshop/Pawnshop/bin/Release/Template/Template-IMD.xlsx
+++ b/Pawnshop/Pawnshop/bin/Release/Template/Template-IMD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
   <si>
     <t>ItemCode</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -520,6 +520,32 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5" spans="1:8">
+      <c r="A5">
+        <v>123</v>
+      </c>
+      <c r="B5">
+        <v>123</v>
+      </c>
+      <c r="C5">
+        <v>123</v>
+      </c>
+      <c r="D5">
+        <v>123</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Pawnshop/Pawnshop/bin/Release/Template/Template-IMD.xlsx
+++ b/Pawnshop/Pawnshop/bin/Release/Template/Template-IMD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
   <si>
     <t>ItemCode</t>
   </si>
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -546,6 +546,32 @@
         <v>11</v>
       </c>
     </row>
+    <row r="6" spans="1:8">
+      <c r="A6">
+        <v>123</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>123</v>
+      </c>
+      <c r="D6">
+        <v>123</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Pawnshop/Pawnshop/bin/Release/Template/Template-IMD.xlsx
+++ b/Pawnshop/Pawnshop/bin/Release/Template/Template-IMD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
   <si>
     <t>ItemCode</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>DD</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="H4" sqref="H4"/>
@@ -572,6 +575,58 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" spans="1:8">
+      <c r="A7">
+        <v>123</v>
+      </c>
+      <c r="B7">
+        <v>1231</v>
+      </c>
+      <c r="C7">
+        <v>123</v>
+      </c>
+      <c r="D7">
+        <v>13</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8">
+        <v>12323</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8">
+        <v>123</v>
+      </c>
+      <c r="D8">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Pawnshop/Pawnshop/bin/Release/Template/Template-IMD.xlsx
+++ b/Pawnshop/Pawnshop/bin/Release/Template/Template-IMD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>ItemCode</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>DD</t>
   </si>
 </sst>
 </file>
@@ -407,7 +404,7 @@
   <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -527,14 +524,14 @@
       <c r="A5">
         <v>123</v>
       </c>
-      <c r="B5">
-        <v>123</v>
-      </c>
-      <c r="C5">
-        <v>123</v>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
       </c>
       <c r="D5">
-        <v>123</v>
+        <v>2000</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -554,13 +551,13 @@
         <v>123</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>123</v>
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
       </c>
       <c r="D6">
-        <v>123</v>
+        <v>2000</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -579,14 +576,14 @@
       <c r="A7">
         <v>123</v>
       </c>
-      <c r="B7">
-        <v>1231</v>
-      </c>
-      <c r="C7">
-        <v>123</v>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
       </c>
       <c r="D7">
-        <v>13</v>
+        <v>2000</v>
       </c>
       <c r="E7" t="s">
         <v>11</v>
@@ -606,13 +603,13 @@
         <v>12323</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>123</v>
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
       </c>
       <c r="D8">
-        <v>13</v>
+        <v>2000</v>
       </c>
       <c r="E8" t="s">
         <v>11</v>

--- a/Pawnshop/Pawnshop/bin/Release/Template/Template-IMD.xlsx
+++ b/Pawnshop/Pawnshop/bin/Release/Template/Template-IMD.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="20">
   <si>
     <t>ItemCode</t>
   </si>
@@ -52,10 +52,28 @@
     <t>Y</t>
   </si>
   <si>
-    <t>sdfkjsdjf</t>
-  </si>
-  <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>Blueberry</t>
+  </si>
+  <si>
+    <t>Nokia 5110</t>
+  </si>
+  <si>
+    <t>Nokia 3310</t>
+  </si>
+  <si>
+    <t>Kensin Da</t>
+  </si>
+  <si>
+    <t>CLoudFone</t>
+  </si>
+  <si>
+    <t>Iphone</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cloudFone excite</t>
   </si>
 </sst>
 </file>
@@ -401,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -444,7 +462,7 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
-        <v>4123</v>
+        <v>100001</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
@@ -453,7 +471,7 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -470,7 +488,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>812983</v>
+        <v>100002</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -479,7 +497,7 @@
         <v>9</v>
       </c>
       <c r="D3">
-        <v>3000</v>
+        <v>1500</v>
       </c>
       <c r="E3" t="s">
         <v>11</v>
@@ -496,10 +514,10 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>123213</v>
+        <v>100003</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
@@ -508,30 +526,30 @@
         <v>2000</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>123</v>
+        <v>100004</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5">
-        <v>2000</v>
+        <v>3000</v>
       </c>
       <c r="E5" t="s">
         <v>11</v>
@@ -548,10 +566,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>123</v>
+        <v>100005</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -574,25 +592,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>123</v>
+        <v>100006</v>
       </c>
       <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7">
+        <v>1800</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" t="s">
         <v>12</v>
-      </c>
-      <c r="C7" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7">
-        <v>2000</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
       </c>
       <c r="H7" t="s">
         <v>11</v>
@@ -600,27 +618,105 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>12323</v>
+        <v>100007</v>
       </c>
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8">
+        <v>2500</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" t="s">
         <v>12</v>
       </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8">
-        <v>2000</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" t="s">
-        <v>13</v>
-      </c>
       <c r="H8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9">
+        <v>100008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9">
+        <v>5000</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" t="s">
+        <v>12</v>
+      </c>
+      <c r="H9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10">
+        <v>100009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10">
+        <v>4000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11">
+        <v>100010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>2002</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" t="s">
         <v>11</v>
       </c>
     </row>
